--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09535966666666666</v>
+        <v>0.06893333333333333</v>
       </c>
       <c r="N2">
-        <v>0.286079</v>
+        <v>0.2068</v>
       </c>
       <c r="O2">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="P2">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="Q2">
-        <v>10.19190668441678</v>
+        <v>14.57674376888889</v>
       </c>
       <c r="R2">
-        <v>91.72716015975098</v>
+        <v>131.19069392</v>
       </c>
       <c r="S2">
-        <v>0.01229751357248457</v>
+        <v>0.01629110526668793</v>
       </c>
       <c r="T2">
-        <v>0.01229751357248457</v>
+        <v>0.01629110526668793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.074582</v>
+        <v>0.09535966666666668</v>
       </c>
       <c r="N3">
-        <v>3.223746</v>
+        <v>0.286079</v>
       </c>
       <c r="O3">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="P3">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="Q3">
-        <v>114.849808641186</v>
+        <v>20.16489497417778</v>
       </c>
       <c r="R3">
-        <v>1033.648277770674</v>
+        <v>181.4840547676</v>
       </c>
       <c r="S3">
-        <v>0.13857731671756</v>
+        <v>0.02253647535584534</v>
       </c>
       <c r="T3">
-        <v>0.13857731671756</v>
+        <v>0.02253647535584534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09535966666666666</v>
+        <v>0.85398</v>
       </c>
       <c r="N4">
-        <v>0.286079</v>
+        <v>2.56194</v>
       </c>
       <c r="O4">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="P4">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="Q4">
-        <v>7.364905792972332</v>
+        <v>180.583863304</v>
       </c>
       <c r="R4">
-        <v>66.28415213675099</v>
+        <v>1625.254769736</v>
       </c>
       <c r="S4">
-        <v>0.008886465678461053</v>
+        <v>0.2018222157975748</v>
       </c>
       <c r="T4">
-        <v>0.008886465678461054</v>
+        <v>0.2018222157975748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.074582</v>
+        <v>0.006162666666666667</v>
       </c>
       <c r="N5">
-        <v>3.223746</v>
+        <v>0.018488</v>
       </c>
       <c r="O5">
-        <v>0.9184919476042253</v>
+        <v>0.00601566976550016</v>
       </c>
       <c r="P5">
-        <v>0.9184919476042253</v>
+        <v>0.00601566976550016</v>
       </c>
       <c r="Q5">
-        <v>82.99310886318601</v>
+        <v>1.303166531911111</v>
       </c>
       <c r="R5">
-        <v>746.937979768674</v>
+        <v>11.7284987872</v>
       </c>
       <c r="S5">
-        <v>0.1001391510214874</v>
+        <v>0.001456431113010282</v>
       </c>
       <c r="T5">
-        <v>0.1001391510214875</v>
+        <v>0.001456431113010282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09535966666666666</v>
+        <v>0.06893333333333333</v>
       </c>
       <c r="N6">
-        <v>0.286079</v>
+        <v>0.2068</v>
       </c>
       <c r="O6">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="P6">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="Q6">
-        <v>13.033409937541</v>
+        <v>5.323922825466666</v>
       </c>
       <c r="R6">
-        <v>117.300689437869</v>
+        <v>47.9153054292</v>
       </c>
       <c r="S6">
-        <v>0.01572605995772394</v>
+        <v>0.00595006597883083</v>
       </c>
       <c r="T6">
-        <v>0.01572605995772395</v>
+        <v>0.00595006597883083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,61 +853,61 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.074582</v>
+        <v>0.09535966666666668</v>
       </c>
       <c r="N7">
-        <v>3.223746</v>
+        <v>0.286079</v>
       </c>
       <c r="O7">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="P7">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="Q7">
-        <v>146.869931566134</v>
+        <v>7.364905792972334</v>
       </c>
       <c r="R7">
-        <v>1321.829384095206</v>
+        <v>66.284152136751</v>
       </c>
       <c r="S7">
-        <v>0.1772126681247933</v>
+        <v>0.008231087645831456</v>
       </c>
       <c r="T7">
-        <v>0.1772126681247934</v>
+        <v>0.008231087645831456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.55066433333334</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>136.651993</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.06430145431675577</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.06430145431675578</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09535966666666666</v>
+        <v>0.85398</v>
       </c>
       <c r="N8">
-        <v>0.286079</v>
+        <v>2.56194</v>
       </c>
       <c r="O8">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="P8">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="Q8">
-        <v>4.343696167271889</v>
+        <v>65.95537158354</v>
       </c>
       <c r="R8">
-        <v>39.093265505447</v>
+        <v>593.59834425186</v>
       </c>
       <c r="S8">
-        <v>0.005241086307574643</v>
+        <v>0.07371234058900317</v>
       </c>
       <c r="T8">
-        <v>0.005241086307574644</v>
+        <v>0.07371234058900317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.55066433333334</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>136.651993</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.06430145431675577</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.06430145431675578</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.074582</v>
+        <v>0.006162666666666667</v>
       </c>
       <c r="N9">
-        <v>3.223746</v>
+        <v>0.018488</v>
       </c>
       <c r="O9">
-        <v>0.9184919476042253</v>
+        <v>0.00601566976550016</v>
       </c>
       <c r="P9">
-        <v>0.9184919476042253</v>
+        <v>0.00601566976550016</v>
       </c>
       <c r="Q9">
-        <v>48.94792398064201</v>
+        <v>0.4759607601413334</v>
       </c>
       <c r="R9">
-        <v>440.5313158257781</v>
+        <v>4.283646841272001</v>
       </c>
       <c r="S9">
-        <v>0.05906036800918112</v>
+        <v>0.0005319382002738123</v>
       </c>
       <c r="T9">
-        <v>0.05906036800918114</v>
+        <v>0.0005319382002738123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>198.5982106666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>595.794632</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09535966666666666</v>
+        <v>0.06893333333333333</v>
       </c>
       <c r="N10">
-        <v>0.286079</v>
+        <v>0.2068</v>
       </c>
       <c r="O10">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="P10">
-        <v>0.0815080523957747</v>
+        <v>0.06728907980881832</v>
       </c>
       <c r="Q10">
-        <v>18.93825916976978</v>
+        <v>12.01581788537778</v>
       </c>
       <c r="R10">
-        <v>170.444332527928</v>
+        <v>108.1423609684</v>
       </c>
       <c r="S10">
-        <v>0.02285082726822486</v>
+        <v>0.01342899053037014</v>
       </c>
       <c r="T10">
-        <v>0.02285082726822487</v>
+        <v>0.01342899053037014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>198.5982106666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>595.794632</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.074582</v>
+        <v>0.09535966666666668</v>
       </c>
       <c r="N11">
-        <v>3.223746</v>
+        <v>0.286079</v>
       </c>
       <c r="O11">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="P11">
-        <v>0.9184919476042253</v>
+        <v>0.09308507090245134</v>
       </c>
       <c r="Q11">
-        <v>213.410062414608</v>
+        <v>16.62221066165856</v>
       </c>
       <c r="R11">
-        <v>1920.690561731472</v>
+        <v>149.599895954927</v>
       </c>
       <c r="S11">
-        <v>0.2574997221139295</v>
+        <v>0.01857713821053076</v>
       </c>
       <c r="T11">
-        <v>0.2574997221139295</v>
+        <v>0.01857713821053075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,108 +1163,852 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>143.4557186666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>430.367156</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.2025088212285795</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.2025088212285796</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09535966666666666</v>
+        <v>0.85398</v>
       </c>
       <c r="N12">
-        <v>0.286079</v>
+        <v>2.56194</v>
       </c>
       <c r="O12">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="P12">
-        <v>0.0815080523957747</v>
+        <v>0.8336101795232301</v>
       </c>
       <c r="Q12">
-        <v>13.67988951348044</v>
+        <v>148.85785528658</v>
       </c>
       <c r="R12">
-        <v>123.119005621324</v>
+        <v>1339.72069757922</v>
       </c>
       <c r="S12">
-        <v>0.01650609961130563</v>
+        <v>0.1663649322987257</v>
       </c>
       <c r="T12">
-        <v>0.01650609961130564</v>
+        <v>0.1663649322987257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>174.3107043333333</v>
+      </c>
+      <c r="H13">
+        <v>522.932113</v>
+      </c>
+      <c r="I13">
+        <v>0.199571617988009</v>
+      </c>
+      <c r="J13">
+        <v>0.199571617988009</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.006162666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.018488</v>
+      </c>
+      <c r="O13">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="P13">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="Q13">
+        <v>1.074218767238222</v>
+      </c>
+      <c r="R13">
+        <v>9.667968905143999</v>
+      </c>
+      <c r="S13">
+        <v>0.001200556948382414</v>
+      </c>
+      <c r="T13">
+        <v>0.001200556948382414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>28.53474833333333</v>
+      </c>
+      <c r="H14">
+        <v>85.60424499999999</v>
+      </c>
+      <c r="I14">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="J14">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06893333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.2068</v>
+      </c>
+      <c r="O14">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="P14">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="Q14">
+        <v>1.966995318444444</v>
+      </c>
+      <c r="R14">
+        <v>17.702957866</v>
+      </c>
+      <c r="S14">
+        <v>0.002198332377924714</v>
+      </c>
+      <c r="T14">
+        <v>0.002198332377924714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>28.53474833333333</v>
+      </c>
+      <c r="H15">
+        <v>85.60424499999999</v>
+      </c>
+      <c r="I15">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="J15">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09535966666666668</v>
+      </c>
+      <c r="N15">
+        <v>0.286079</v>
+      </c>
+      <c r="O15">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="P15">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="Q15">
+        <v>2.721064089483889</v>
+      </c>
+      <c r="R15">
+        <v>24.489576805355</v>
+      </c>
+      <c r="S15">
+        <v>0.003041086694121491</v>
+      </c>
+      <c r="T15">
+        <v>0.003041086694121491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>28.53474833333333</v>
+      </c>
+      <c r="H16">
+        <v>85.60424499999999</v>
+      </c>
+      <c r="I16">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="J16">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.85398</v>
+      </c>
+      <c r="N16">
+        <v>2.56194</v>
+      </c>
+      <c r="O16">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="P16">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="Q16">
+        <v>24.3681043817</v>
+      </c>
+      <c r="R16">
+        <v>219.3129394353</v>
+      </c>
+      <c r="S16">
+        <v>0.02723402152949924</v>
+      </c>
+      <c r="T16">
+        <v>0.02723402152949924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>28.53474833333333</v>
+      </c>
+      <c r="H17">
+        <v>85.60424499999999</v>
+      </c>
+      <c r="I17">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="J17">
+        <v>0.03266997236655063</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006162666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.018488</v>
+      </c>
+      <c r="O17">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="P17">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="Q17">
+        <v>0.1758501423955555</v>
+      </c>
+      <c r="R17">
+        <v>1.58265128156</v>
+      </c>
+      <c r="S17">
+        <v>0.0001965317650051843</v>
+      </c>
+      <c r="T17">
+        <v>0.0001965317650051843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>230.32901</v>
+      </c>
+      <c r="H18">
+        <v>690.98703</v>
+      </c>
+      <c r="I18">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J18">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.06893333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.2068</v>
+      </c>
+      <c r="O18">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="P18">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="Q18">
+        <v>15.87734642266667</v>
+      </c>
+      <c r="R18">
+        <v>142.896117804</v>
+      </c>
+      <c r="S18">
+        <v>0.01774467096549986</v>
+      </c>
+      <c r="T18">
+        <v>0.01774467096549986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>230.32901</v>
+      </c>
+      <c r="H19">
+        <v>690.98703</v>
+      </c>
+      <c r="I19">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J19">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.09535966666666668</v>
+      </c>
+      <c r="N19">
+        <v>0.286079</v>
+      </c>
+      <c r="O19">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="P19">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="Q19">
+        <v>21.96409761726334</v>
+      </c>
+      <c r="R19">
+        <v>197.67687855537</v>
+      </c>
+      <c r="S19">
+        <v>0.02454728106933865</v>
+      </c>
+      <c r="T19">
+        <v>0.02454728106933865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>230.32901</v>
+      </c>
+      <c r="H20">
+        <v>690.98703</v>
+      </c>
+      <c r="I20">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J20">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.85398</v>
+      </c>
+      <c r="N20">
+        <v>2.56194</v>
+      </c>
+      <c r="O20">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="P20">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="Q20">
+        <v>196.6963679598</v>
+      </c>
+      <c r="R20">
+        <v>1770.2673116382</v>
+      </c>
+      <c r="S20">
+        <v>0.2198297018053806</v>
+      </c>
+      <c r="T20">
+        <v>0.2198297018053806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>230.32901</v>
+      </c>
+      <c r="H21">
+        <v>690.98703</v>
+      </c>
+      <c r="I21">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J21">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.006162666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.018488</v>
+      </c>
+      <c r="O21">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="P21">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="Q21">
+        <v>1.419440912293334</v>
+      </c>
+      <c r="R21">
+        <v>12.77496821064</v>
+      </c>
+      <c r="S21">
+        <v>0.001586380448791883</v>
+      </c>
+      <c r="T21">
+        <v>0.001586380448791883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H22">
+        <v>454.666397</v>
+      </c>
+      <c r="I22">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J22">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.06893333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.2068</v>
+      </c>
+      <c r="O22">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="P22">
+        <v>0.06728907980881832</v>
+      </c>
+      <c r="Q22">
+        <v>10.44722343328889</v>
+      </c>
+      <c r="R22">
+        <v>94.02501089959999</v>
+      </c>
+      <c r="S22">
+        <v>0.01167591468950485</v>
+      </c>
+      <c r="T22">
+        <v>0.01167591468950485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H23">
+        <v>454.666397</v>
+      </c>
+      <c r="I23">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J23">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.09535966666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.286079</v>
+      </c>
+      <c r="O23">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="P23">
+        <v>0.09308507090245134</v>
+      </c>
+      <c r="Q23">
+        <v>14.45227868748478</v>
+      </c>
+      <c r="R23">
+        <v>130.070508187363</v>
+      </c>
+      <c r="S23">
+        <v>0.01615200192678365</v>
+      </c>
+      <c r="T23">
+        <v>0.01615200192678365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H13">
-        <v>430.367156</v>
-      </c>
-      <c r="I13">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J13">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.074582</v>
-      </c>
-      <c r="N13">
-        <v>3.223746</v>
-      </c>
-      <c r="O13">
-        <v>0.9184919476042253</v>
-      </c>
-      <c r="P13">
-        <v>0.9184919476042253</v>
-      </c>
-      <c r="Q13">
-        <v>154.154933076264</v>
-      </c>
-      <c r="R13">
-        <v>1387.394397686376</v>
-      </c>
-      <c r="S13">
-        <v>0.1860027216172739</v>
-      </c>
-      <c r="T13">
-        <v>0.1860027216172739</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H24">
+        <v>454.666397</v>
+      </c>
+      <c r="I24">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J24">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.85398</v>
+      </c>
+      <c r="N24">
+        <v>2.56194</v>
+      </c>
+      <c r="O24">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="P24">
+        <v>0.8336101795232301</v>
+      </c>
+      <c r="Q24">
+        <v>129.42533657002</v>
+      </c>
+      <c r="R24">
+        <v>1164.82802913018</v>
+      </c>
+      <c r="S24">
+        <v>0.1446469675030467</v>
+      </c>
+      <c r="T24">
+        <v>0.1446469675030467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H25">
+        <v>454.666397</v>
+      </c>
+      <c r="I25">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J25">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.006162666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.018488</v>
+      </c>
+      <c r="O25">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="P25">
+        <v>0.00601566976550016</v>
+      </c>
+      <c r="Q25">
+        <v>0.9339858164151111</v>
+      </c>
+      <c r="R25">
+        <v>8.405872347736</v>
+      </c>
+      <c r="S25">
+        <v>0.001043831290036585</v>
+      </c>
+      <c r="T25">
+        <v>0.001043831290036585</v>
       </c>
     </row>
   </sheetData>
